--- a/data/trans_bre/P37_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>-5,86%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,26%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 16,0</t>
+          <t>-5,85; 20,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 10,79</t>
+          <t>-13,39; 6,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 9,33</t>
+          <t>-7,77; 10,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 15,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 48,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 31,51</t>
+          <t>-19,82; 14,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 27,22</t>
+          <t>-13,55; 71,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 41,68</t>
+          <t>-26,47; 16,93</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-17,74; 30,8</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-31,68; 35,82</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>11,95%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12,17%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 9,47</t>
+          <t>-7,93; 8,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,18</t>
+          <t>-2,34; 10,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 11,28</t>
+          <t>-1,79; 10,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 11,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 29,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 29,45</t>
+          <t>-5,36; 11,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 33,41</t>
+          <t>-18,78; 28,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 30,47</t>
+          <t>-6,05; 33,55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 30,49</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-11,73; 32,3</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,19%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20,79%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,55%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 4,81</t>
+          <t>-9,08; 8,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 12,04</t>
+          <t>-1,46; 12,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 11,9</t>
+          <t>0,72; 12,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 11,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 18,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 43,91</t>
+          <t>-8,87; 7,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 46,12</t>
+          <t>-24,25; 33,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 36,17</t>
+          <t>-3,98; 46,4</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 46,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-21,4; 24,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>33,74%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 6,6</t>
+          <t>-6,72; 7,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 8,33</t>
+          <t>2,41; 17,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 7,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 8,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 20,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 26,21</t>
+          <t>-5,13; 11,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 23,69</t>
+          <t>-16,36; 21,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 23,81</t>
+          <t>5,24; 67,72</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-13,4; 35,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,34%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,6%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 6,19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 8,54</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 8,39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 7,01</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,71; 18,51</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 26,55</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 24,94</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 19,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P37_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,16</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,64</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>19,59%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-5,86%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,1%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-1,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.561560470851578</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.77658420476644</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.631935399295593</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>-2.951939268908638</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1481306648936672</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.04000815657085646</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.06806071442815791</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>-0.05872217504905487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,85; 20,25</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,39; 6,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 10,43</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-19,82; 14,24</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-13,55; 71,28</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-26,47; 16,93</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-17,74; 30,8</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-31,68; 35,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.25987632405302</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.09389503562215</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.873832191653968</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-22.17302181972823</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1645063096305761</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2355062103931992</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1544214334343119</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>-0.3525384770990071</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>18.58578143000022</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.5732355777371</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.20209146889413</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>11.50154525334374</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.6227419008813194</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2050571081688803</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.3434647879257481</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>0.2883272718447125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,25</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,7</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>11,95%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>12,17%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>7,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,93; 8,94</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 10,58</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,79; 10,65</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-5,36; 11,59</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-18,78; 28,55</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-6,05; 33,55</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-4,38; 30,49</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-11,73; 32,3</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.3350475877351156</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.479696117622334</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.111480670394341</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>2.656154957223017</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.008949081086825364</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1267288859396936</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1050489497251988</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>0.06405601483968262</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,99%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>17,61%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>20,79%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-1,55%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.61863236192052</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.094517422717328</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.581726064369736</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-5.988614253816603</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.205576962263417</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.05177610401380339</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.05991395449207557</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>-0.1243261596435219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,08; 8,9</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 12,28</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 12,19</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-8,87; 7,7</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-24,25; 33,12</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-3,98; 46,4</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 46,01</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-21,4; 24,77</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.1824330380189</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.9313291721531</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.13863420616141</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>11.25763116346788</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2492757509393883</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3463808426115865</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.2885907172059353</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>0.3102060528665209</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,94</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>33,74%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>7,62%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.4035056864394315</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.676691303078785</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.889107367333091</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.5846212975290421</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.01248893002729122</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1823004860494267</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1928102282861701</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>-0.0162587241990903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,72; 7,07</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,41; 17,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-5,13; 11,03</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-16,36; 21,29</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>5,24; 67,72</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-13,4; 35,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.26024147617593</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.9059816516825563</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1372154068921757</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-9.148500879919405</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2723209728831932</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.02567975817926007</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.003981201974692691</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.2149365926881706</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.626081606417058</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.72182486237469</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.77949046759359</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>7.418717438974835</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.2839671240920706</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.4726987977506533</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.437188761697496</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>0.2366096814228258</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,93</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,54</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,56%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>14,34%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>12,6%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>5,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,97; 6,19</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 8,54</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 8,39</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-2,71; 7,01</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-7,71; 18,51</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2,55; 26,55</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,24; 24,94</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 19,39</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.108719185882995</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.642160713683612</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.250267037447592</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>0.7520615623208993</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.0311971803651859</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1017440209969767</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1171974734951808</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>0.01826978262772542</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.845910129466881</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.6515625329390493</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.5899601913700602</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-5.465879770652474</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1260708386721015</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.01654798315756916</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.01556734073710545</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>-0.121967150952379</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.809260727812294</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.968718054711259</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.135977709402828</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>6.231353704754617</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2119738946866731</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2409823481528646</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2431335660001507</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>0.1650493766414634</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
